--- a/src/test/Resources/TestData.xlsx
+++ b/src/test/Resources/TestData.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Digi_WS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Digi_WS\IdeaProjects\UI_Test-Automation_Assessment-2---Samad-Aziz\src\test\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D715D73A-C765-48BB-A8D8-F2D8C25072A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A6A2FB-5746-41BD-AED0-BE0E779B3B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FCE3519D-2A65-4563-9203-F8A218569A36}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Luna_Test_cases_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -384,7 +384,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B4393E-831A-400F-90A0-C3F53EABB4FC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
